--- a/medicine/Mort/Cimetière_juif_de_Forbach/Cimetière_juif_de_Forbach.xlsx
+++ b/medicine/Mort/Cimetière_juif_de_Forbach/Cimetière_juif_de_Forbach.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_juif_de_Forbach</t>
+          <t>Cimetière_juif_de_Forbach</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière juif de Forbach est un cimetière juif situé dans la commune française de Forbach du département de la Moselle, dans la région historique de la Lorraine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_juif_de_Forbach</t>
+          <t>Cimetière_juif_de_Forbach</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À Forbach, quatre familles juives payant des impôts sont mentionnées en 1723 et neuf en 1753. Au XIXe siècle, leur nombre a fortement augmenté, si bien qu'en 1834, 314 habitants juifs, soit 10 % de la population, appartenaient à la communauté juive. Après la communauté juive de Metz, c'était la deuxième plus grande communauté juive du département de la Moselle. À partir de 1834, une synagogue est construite sur l'avenue Saint-Remy, qui doit être rénovée en 1862/63. Après avoir été détruit par les occupants allemands pendant la Seconde Guerre mondiale, il a été reconstruit à l'identique par la communauté juive après 1945. 
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_juif_de_Forbach</t>
+          <t>Cimetière_juif_de_Forbach</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Cimetière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été créé vers 1800. Le cimetière juif est situé dans la rue Henri Kaufmann. De nombreuses pierres tombales sont encore conservées dans le cimetière. 
 </t>
